--- a/Setup and Installation/Required Software and Setup.xlsx
+++ b/Setup and Installation/Required Software and Setup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29019"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online Training\ACE\Sapient\PSI-2024 Nov ASDE BLR Batch 1\Setup and Installation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEB7CF39-9CE5-458A-B1D0-756D9A0DF8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{974F0033-AFD8-4B4A-B133-7792C6EE23EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Serial No.</t>
   </si>
@@ -104,7 +104,7 @@
     <t>https://dev.mysql.com/downloads/workbench/</t>
   </si>
   <si>
-    <t>PostgreSQL ver. 17.RC1</t>
+    <t>PostgreSQL ver. 17.RC1 or later (with PGAdmin)</t>
   </si>
   <si>
     <t>https://www.enterprisedb.com/downloads/postgres-postgresql-downloads</t>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=06X51c6WHsQ</t>
+  </si>
+  <si>
+    <t>Ubuntu (WSL2)</t>
   </si>
 </sst>
 </file>
@@ -539,8 +542,8 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
@@ -757,8 +760,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.600000000000001">
+    <row r="25" spans="1:4" ht="18.75">
+      <c r="A25" s="2"/>
       <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="18.75">
+      <c r="A26" s="2">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="18.600000000000001">
       <c r="A27" s="2"/>

--- a/Setup and Installation/Required Software and Setup.xlsx
+++ b/Setup and Installation/Required Software and Setup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online Training\ACE\Sapient\PSI-2024 Nov ASDE BLR Batch 1\Setup and Installation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Online Training\Apexon\GS-Training\Setup and Installation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{974F0033-AFD8-4B4A-B133-7792C6EE23EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01CF6D2-0790-44FC-8E9F-1F2185E82262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Required Software and Setup" sheetId="1" r:id="rId1"/>
@@ -539,22 +539,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="47.25" customWidth="1"/>
-    <col min="3" max="3" width="70.5" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" customWidth="1"/>
     <col min="4" max="4" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.600000000000001">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.600000000000001">
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -591,7 +591,7 @@
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="18.600000000000001">
+    <row r="6" spans="1:4" ht="18.75">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -622,12 +622,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.600000000000001">
+    <row r="9" spans="1:4" ht="18.75">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="18.600000000000001">
+    <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -641,13 +641,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.600000000000001">
+    <row r="11" spans="1:4" ht="18.75">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="18.600000000000001">
+    <row r="12" spans="1:4" ht="18.75">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -664,7 +664,7 @@
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="18.600000000000001">
+    <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -681,7 +681,7 @@
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="18.600000000000001">
+    <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="2">
         <v>7</v>
       </c>
@@ -698,7 +698,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="18.600000000000001">
+    <row r="18" spans="1:4" ht="18.75">
       <c r="A18" s="2">
         <v>8</v>
       </c>
@@ -729,7 +729,7 @@
     <row r="21" spans="1:4">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="18.600000000000001">
+    <row r="22" spans="1:4" ht="18.75">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -746,7 +746,7 @@
     <row r="23" spans="1:4">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="18.600000000000001">
+    <row r="24" spans="1:4" ht="18.75">
       <c r="A24" s="2">
         <v>11</v>
       </c>
@@ -772,12 +772,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.600000000000001">
+    <row r="27" spans="1:4" ht="18.75">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="18.600000000000001">
+    <row r="29" spans="1:4" ht="18.75">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -791,13 +791,6 @@
     <row r="35" spans="1:1">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" ht="13.5"/>
-    <row r="38" spans="1:1" ht="13.5"/>
-    <row r="39" spans="1:1" ht="13.5"/>
-    <row r="40" spans="1:1" ht="13.5"/>
-    <row r="42" spans="1:1" ht="13.5"/>
-    <row r="44" spans="1:1" ht="13.5"/>
-    <row r="46" spans="1:1" ht="13.5"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
